--- a/lee.xlsx
+++ b/lee.xlsx
@@ -1,178 +1,188 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus18.TRANSITUS18-PC\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE3CBD3-E2CB-4680-A315-078F3430DC64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:workbookPr codeName="ThisWorkbook"/>
+  <x:bookViews>
+    <x:workbookView firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Test-Cases" sheetId="2" r:id="rId2"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="125725"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>TestScenarioID</t>
-  </si>
-  <si>
-    <t>TestCaseID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Precondition</t>
-  </si>
-  <si>
-    <t>TestData</t>
-  </si>
-  <si>
-    <t>Steps</t>
-  </si>
-  <si>
-    <t>UserAction</t>
-  </si>
-  <si>
-    <t>ExpectedResult</t>
-  </si>
-  <si>
-    <t>Approved/Rejected</t>
-  </si>
-  <si>
-    <t>ReasonToReject</t>
-  </si>
-  <si>
-    <t>IsModified/Added</t>
-  </si>
-  <si>
-    <t>TestScenario_2</t>
-  </si>
-  <si>
-    <t>TestScenario_2.TestCase_1</t>
-  </si>
-  <si>
-    <t>View Account</t>
-  </si>
-  <si>
-    <t>User Needs to Login to Salesforce, from the browser with correct credentials</t>
-  </si>
-  <si>
-    <t>Step 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the Account tab,  and select a Account </t>
-  </si>
-  <si>
-    <t>User should be navigated to the Account Page</t>
-  </si>
-  <si>
-    <t>Step 2</t>
-  </si>
-  <si>
-    <t>Click on Account name to View the Details</t>
-  </si>
-  <si>
-    <t>User should be able to view the Account Details</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <x:si>
+    <x:t>TestScenarioID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestCaseID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Precondition</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestData</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steps</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UserAction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExpectedResult</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Approved/Rejected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReasonToReject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IsModified/Added</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Account tab,  and select a Account </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Account Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Approved</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Account name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Account Details</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-  </fonts>
-  <fills count="3">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5F9EA0"/>
-        <bgColor rgb="FF5F9EA0"/>
-      </patternFill>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FFFFFFFF"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="3">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FF5F9EA0"/>
+        <x:bgColor rgb="FF5F9EA0"/>
+      </x:patternFill>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+</x:styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K3" totalsRowShown="0">
-  <autoFilter ref="A1:K3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Precondition"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TestData"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Steps"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="UserAction"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ExpectedResult"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Approved/Rejected"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ReasonToReject"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="IsModified/Added"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K3" totalsRowShown="0">
+  <x:autoFilter ref="A1:K3"/>
+  <x:tableColumns count="11">
+    <x:tableColumn id="1" name="TestScenarioID"/>
+    <x:tableColumn id="2" name="TestCaseID"/>
+    <x:tableColumn id="3" name="Description"/>
+    <x:tableColumn id="4" name="Precondition"/>
+    <x:tableColumn id="5" name="TestData"/>
+    <x:tableColumn id="6" name="Steps"/>
+    <x:tableColumn id="7" name="UserAction"/>
+    <x:tableColumn id="8" name="ExpectedResult"/>
+    <x:tableColumn id="9" name="Approved/Rejected"/>
+    <x:tableColumn id="10" name="ReasonToReject"/>
+    <x:tableColumn id="11" name="IsModified/Added"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -455,105 +465,120 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="70" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="44" customWidth="1"/>
-    <col min="8" max="8" width="45" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
+<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:K3"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="15.130625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="43.980625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="44.980625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:11" s="1" customFormat="1">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:11">
+      <x:c r="A2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s"/>
+      <x:c r="K2" s="0" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:11">
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s"/>
+      <x:c r="F3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s"/>
+      <x:c r="J3" s="0" t="s"/>
+      <x:c r="K3" s="0" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId5"/>
+  </x:tableParts>
+</x:worksheet>
 </file>